--- a/EXP 8/T8.xlsx
+++ b/EXP 8/T8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5139D174-AF28-44EC-9BB4-790C3DAE68C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B56D19D-9546-4A07-99E8-9D7989C50E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAF38A1F-BD9D-416B-BE17-8DE3D13292B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>I (A)</t>
   </si>
@@ -44,7 +44,16 @@
     <t>R</t>
   </si>
   <si>
-    <t>Theta</t>
+    <t>VX</t>
+  </si>
+  <si>
+    <t>VY</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>Langevin</t>
   </si>
 </sst>
 </file>
@@ -60,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +79,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -110,6 +125,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -127,6 +145,3819 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R(I)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>descida</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.8600056433390595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3001506010433328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5105392615976649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7009029242334197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8503076842162747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9401619406655088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6601229487545908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.900017241328058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7500285711953392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.74006756448313549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.55009090157900276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3300375934536588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.0900239233080562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9601520231231366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9000512817141262</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.8003749853527067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.7705545660707509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.7632610477490811</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.8236819976274603</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.635212794135418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF54-4A80-834F-E54CF6826551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>subida</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-8.0285303761024647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2299930843673703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.4395186155488364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6269707658739438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.987229614657275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.2455662063806372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4539967400141349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5825612152457169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.3409808608931815E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.57035076926396788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3513326755466251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1123683390924035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9837727795527598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0848990195597246</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8426439059670701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8058246614929736</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8305783064100805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9300945769896085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5912746434973197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF54-4A80-834F-E54CF6826551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>descida final</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$41:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.1697980391194491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3393323947073004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3841444219253063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5947296628166043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7750706801051646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8147345910298922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7835229476330885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7328877632437711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.73109506905736954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF54-4A80-834F-E54CF6826551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527378319"/>
+        <c:axId val="227910335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527378319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227910335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227910335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527378319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>phi(I)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1.5696676591026058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5647723032787262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5588128791426694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5543798912457329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5605402761532297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5626993377571585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5625997890449841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5673480646000939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5650821032756994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5572836357815685</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5526165117219184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.5632776714825927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5660116743115382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5606615386686591</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.5656681666206622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5582969777755349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5569323970941906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.5397412252703457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5401154201668537</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5360478627504153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5246943528335597</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.5182132651839548</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.516417641909763</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.5210154248588073</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.5105677510939022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5122214340572973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5137155443886321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.5138957895200615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1498057525426508</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.5357229962616712</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5263811115479857</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.5234383980243529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5205032030519823</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5218159258711694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.5377505097759667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5259987316339212</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5151354047891981</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.5203341527780407</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.5195591593914779</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.5218159258711694</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.5203616434312117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.5347617749824054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.5296746197378996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5247073951323424</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.5209688382590107</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.5204791223334184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.5130571082697926</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.516056546745016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB91-441E-9AFA-CC3640DAC9A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="614746287"/>
+        <c:axId val="650121823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="614746287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650121823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650121823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614746287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>langevin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(I)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>descida</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.88713329503626026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87952038184244385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86685436743926236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85076940492278708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82908539685791927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7976798345589553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72811001015123289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66124775115314627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49085240705015976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.23812720449492053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17976805126866813</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.39854730181736564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.55260744358417813</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.66756273071638383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.74441283687309756</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.79181830588439583</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.8267258746679842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.85214500313139763</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.87218326423526982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8841951578649474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57B7-44EE-9714-FA8748158C46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>subida</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0.87544441555411157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.86168833113191967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.84471399096888444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.82231039893675406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.74988781344602984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.69492562067003161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60738604518166084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.45625108001086467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4461149480130118E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.18611763226468447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40367366955185102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55629046788368774</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66998801931734686</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75576221754274342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7936256233767135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82777730010254746</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85360184542691653</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87389835800351345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88360290540789288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57B7-44EE-9714-FA8748158C46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>descida final</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$41:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$41:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.87759811369946861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86374866890813307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8433676389934559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8212879924615184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79072140863871909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73883087486932975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6484158681553267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48744207154766672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.23543420037761109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-57B7-44EE-9714-FA8748158C46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527378319"/>
+        <c:axId val="227910335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527378319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227910335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227910335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527378319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31532944-3BE9-49E2-8389-34FB46EBD8B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF03391-D9E1-4EE5-8552-D09FB4A3CAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB50B5A-72D3-45FB-AC72-8971FA895051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,10 +4257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65F646-037C-4F7A-A5A9-B9B8113BCCD5}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,263 +4268,1132 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8.86</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="2">
+        <f>IF(A2&gt;0, SQRT(B2^2+C2^2), -SQRT(B2^2+C2^2))</f>
+        <v>8.8600056433390595</v>
+      </c>
+      <c r="E2" s="2">
+        <f>ATAN(B2/C2)</f>
+        <v>1.5696676591026058</v>
+      </c>
+      <c r="F2" s="2">
+        <f>_xlfn.COTH(D2)-1/D2</f>
+        <v>0.88713329503626026</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D49" si="0">IF(A3&gt;0, SQRT(B3^2+C3^2), -SQRT(B3^2+C3^2))</f>
+        <v>8.3001506010433328</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E49" si="1">ATAN(B3/C3)</f>
+        <v>-1.5647723032787262</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F49" si="2">_xlfn.COTH(D3)-1/D3</f>
+        <v>0.87952038184244385</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5105392615976649</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5588128791426694</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.86685436743926236</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7009029242334197</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5543798912457329</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85076940492278708</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8503076842162747</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5605402761532297</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82908539685791927</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9401619406655088</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5626993377571585</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7976798345589553</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6601229487545908</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5625997890449841</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72811001015123289</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.900017241328058</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5673480646000939</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.66124775115314627</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7500285711953392</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5650821032756994</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49085240705015976</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.74006756448313549</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5572836357815685</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.23812720449492053</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.55009090157900276</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5526165117219184</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.17976805126866813</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-1.33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.3300375934536588</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5632776714825927</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.39854730181736564</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-2.09</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0900239233080562</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5660116743115382</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.55260744358417813</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-2.96</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.9601520231231366</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5606615386686591</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.66756273071638383</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-3.9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.9000512817141262</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5656681666206622</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.74441283687309756</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>-0.495</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-4.8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.8003749853527067</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5582969777755349</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.79181830588439583</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>-0.59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-5.77</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.7705545660707509</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5569323970941906</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.8267258746679842</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>-0.69</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-6.76</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.7632610477490811</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5397412252703457</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.85214500313139763</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>-0.79</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-7.82</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.8236819976274603</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5401154201668537</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.87218326423526982</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>-0.87</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.635212794135418</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5360478627504153</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.8841951578649474</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>-0.79</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-8.02</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.0285303761024647</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5246943528335597</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.87544441555411157</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>-0.69</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-7.22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.2299930843673703</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5182132651839548</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.86168833113191967</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>-0.59</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-6.43</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.4395186155488364</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.516417641909763</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.84471399096888444</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-5.62</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.6269707658739438</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5210154248588073</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.82231039893675406</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>-0.39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-3.98</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.987229614657275</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5105677510939022</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.74988781344602984</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-3.24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.2455662063806372</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5122214340572973</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.69492562067003161</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.4539967400141349</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5137155443886321</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.60738604518166084</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-1.58</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.5825612152457169</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5138957895200615</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.45625108001086467</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.3409808608931815E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1498057525426508</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.4461149480130118E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.57035076926396788</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5357229962616712</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.18611763226468447</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3513326755466251</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5263811115479857</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40367366955185102</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1123683390924035</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5234383980243529</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55629046788368774</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9837727795527598</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5205032030519823</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.66998801931734686</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0848990195597246</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5218159258711694</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75576221754274342</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-0.16</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8426439059670701</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5377505097759667</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7936256233767135</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8058246614929736</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5259987316339212</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82777730010254746</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-0.38</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8305783064100805</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5151354047891981</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85360184542691653</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9300945769896085</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5203341527780407</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87389835800351345</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="B40" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-0.44</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5912746434973197</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5195591593914779</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.88360290540789288</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1697980391194491</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5218159258711694</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87759811369946861</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-0.37</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3393323947073004</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5203616434312117</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.86374866890813307</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-0.23</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3841444219253063</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5347617749824054</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8433676389934559</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-0.23</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5947296628166043</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5296746197378996</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8212879924615184</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7750706801051646</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5247073951323424</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79072140863871909</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-0.19</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8147345910298922</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5209688382590107</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73883087486932975</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7835229476330885</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5204791223334184</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6484158681553267</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7328877632437711</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5130571082697926</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48744207154766672</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.73109506905736954</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.516056546745016</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.23543420037761109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>